--- a/quote_output.xlsx
+++ b/quote_output.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAN-SOFTWARE-NGFW-CR</t>
+          <t>Samar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,28 +497,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="D2" t="n">
-        <v>193.5</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>174.15</v>
+        <v>360</v>
       </c>
       <c r="G2" t="n">
-        <v>17415</v>
+        <v>396000</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>208.98</v>
+        <v>432</v>
       </c>
       <c r="J2" t="n">
-        <v>20898</v>
+        <v>475200</v>
       </c>
     </row>
     <row r="3">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
         <v>193.5</v>
@@ -545,7 +545,7 @@
         <v>154.8</v>
       </c>
       <c r="G3" t="n">
-        <v>309600</v>
+        <v>15480</v>
       </c>
       <c r="H3" t="n">
         <v>30</v>
@@ -554,7 +554,7 @@
         <v>201.24</v>
       </c>
       <c r="J3" t="n">
-        <v>402480</v>
+        <v>20124</v>
       </c>
     </row>
   </sheetData>
